--- a/COVIDPPP/descriptives.xlsx
+++ b/COVIDPPP/descriptives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9925B7AA-D2DB-4365-88C3-B33195DA6C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBF39E-A1C9-4864-946E-5F913ABEADD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09AAA3-C6CD-4BC4-B5D7-6A5DC5513EF3}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
         <v>33.049999999999997</v>
       </c>
       <c r="D2" s="7">
-        <v>-29.55</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -627,7 +627,7 @@
         <v>86.28</v>
       </c>
       <c r="D3" s="7">
-        <v>-36.57</v>
+        <v>36.57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -641,7 +641,7 @@
         <v>11.31</v>
       </c>
       <c r="D4" s="7">
-        <v>-16.53</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -655,7 +655,7 @@
         <v>74.23</v>
       </c>
       <c r="D5" s="7">
-        <v>-20.47</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -669,7 +669,7 @@
         <v>90.14</v>
       </c>
       <c r="D6" s="7">
-        <v>-9.33</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -683,7 +683,7 @@
         <v>48.44</v>
       </c>
       <c r="D7" s="7">
-        <v>-11.22</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -697,7 +697,7 @@
         <v>2.33</v>
       </c>
       <c r="D8" s="7">
-        <v>-8.7799999999999994</v>
+        <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -711,7 +711,7 @@
         <v>0.87</v>
       </c>
       <c r="D9" s="7">
-        <v>-0.33</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -725,7 +725,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10" s="7">
-        <v>-0.26</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -739,7 +739,7 @@
         <v>0.04</v>
       </c>
       <c r="D11" s="7">
-        <v>-0.19</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -753,7 +753,7 @@
         <v>0.01</v>
       </c>
       <c r="D12" s="7">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -767,7 +767,7 @@
         <v>4.6499999999999996E-3</v>
       </c>
       <c r="D13" s="7">
-        <v>-7.0000000000000007E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -781,7 +781,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
       <c r="D14" s="7">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -795,7 +795,7 @@
         <v>-0.91</v>
       </c>
       <c r="D15" s="7">
-        <v>-16.899999999999999</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -809,7 +809,7 @@
         <v>6.18</v>
       </c>
       <c r="D16" s="7">
-        <v>-22.94</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -823,7 +823,7 @@
         <v>0.11</v>
       </c>
       <c r="D17" s="7">
-        <v>-0.46</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -837,7 +837,7 @@
         <v>38.39</v>
       </c>
       <c r="D18" s="7">
-        <v>-109.22</v>
+        <v>109.22</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -851,7 +851,7 @@
         <v>1.62</v>
       </c>
       <c r="D19" s="7">
-        <v>-5.69</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -865,7 +865,7 @@
         <v>78.67</v>
       </c>
       <c r="D20" s="7">
-        <v>-108.12</v>
+        <v>108.12</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -879,7 +879,7 @@
         <v>0.16</v>
       </c>
       <c r="D21" s="7">
-        <v>-0.37</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -893,7 +893,7 @@
         <v>4.22</v>
       </c>
       <c r="D22" s="7">
-        <v>-22.96</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -907,7 +907,7 @@
         <v>0.04</v>
       </c>
       <c r="D23" s="7">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>0.69</v>
       </c>
       <c r="D24" s="7">
-        <v>-0.46</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -935,7 +935,7 @@
         <v>0.87</v>
       </c>
       <c r="D25" s="7">
-        <v>-0.34</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -949,7 +949,7 @@
         <v>0.72</v>
       </c>
       <c r="D26" s="7">
-        <v>-0.45</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -963,7 +963,7 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="7">
-        <v>-0.22</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
         <v>0.68</v>
       </c>
       <c r="D28" s="7">
-        <v>-0.47</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>14.32</v>
       </c>
       <c r="D29" s="7">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1005,7 +1005,7 @@
         <v>13.51</v>
       </c>
       <c r="D30" s="7">
-        <v>-4.3499999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1019,7 +1019,7 @@
         <v>0.45</v>
       </c>
       <c r="D31" s="7">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>40.32</v>
       </c>
       <c r="D32" s="7">
-        <v>-70.2</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1047,7 +1047,7 @@
         <v>10.45</v>
       </c>
       <c r="D33" s="7">
-        <v>-30.61</v>
+        <v>30.61</v>
       </c>
     </row>
   </sheetData>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC78E0-1A02-473D-AFCB-B7BDC4D8A584}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1094,7 @@
         <v>35.590000000000003</v>
       </c>
       <c r="D2" s="7">
-        <v>-27.42</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1108,7 +1108,7 @@
         <v>90.38</v>
       </c>
       <c r="D3" s="7">
-        <v>-37.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1122,7 +1122,7 @@
         <v>11.79</v>
       </c>
       <c r="D4" s="7">
-        <v>-16.55</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1136,7 +1136,7 @@
         <v>72.47</v>
       </c>
       <c r="D5" s="7">
-        <v>-20.149999999999999</v>
+        <v>20.149999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>90.11</v>
       </c>
       <c r="D6" s="7">
-        <v>-9.4499999999999993</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1164,7 +1164,7 @@
         <v>48.4</v>
       </c>
       <c r="D7" s="7">
-        <v>-11.16</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1178,7 +1178,7 @@
         <v>1.48</v>
       </c>
       <c r="D8" s="7">
-        <v>-3.76</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1192,7 +1192,7 @@
         <v>0.9</v>
       </c>
       <c r="D9" s="7">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>0.06</v>
       </c>
       <c r="D10" s="7">
-        <v>-0.24</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1220,7 +1220,7 @@
         <v>0.03</v>
       </c>
       <c r="D11" s="7">
-        <v>-0.17</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1234,7 +1234,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="D12" s="7">
-        <v>-0.09</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1248,7 +1248,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D13" s="7">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1262,7 +1262,7 @@
         <v>9.1600000000000004E-4</v>
       </c>
       <c r="D14" s="7">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1276,7 +1276,7 @@
         <v>-2.89</v>
       </c>
       <c r="D15" s="7">
-        <v>-16.09</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1290,7 +1290,7 @@
         <v>7.02</v>
       </c>
       <c r="D16" s="7">
-        <v>-15.91</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1304,7 +1304,7 @@
         <v>0.12</v>
       </c>
       <c r="D17" s="7">
-        <v>-0.23</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1318,7 +1318,7 @@
         <v>43.8</v>
       </c>
       <c r="D18" s="7">
-        <v>-68.16</v>
+        <v>68.16</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1332,7 +1332,7 @@
         <v>1.92</v>
       </c>
       <c r="D19" s="7">
-        <v>-0.23</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1346,7 +1346,7 @@
         <v>136.86000000000001</v>
       </c>
       <c r="D20" s="7">
-        <v>-130</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1360,7 +1360,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21" s="7">
-        <v>-0.26</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1374,7 +1374,7 @@
         <v>3.7</v>
       </c>
       <c r="D22" s="7">
-        <v>-8.41</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1388,7 +1388,7 @@
         <v>0.04</v>
       </c>
       <c r="D23" s="7">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1402,7 +1402,7 @@
         <v>0.69</v>
       </c>
       <c r="D24" s="7">
-        <v>-0.46</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1416,7 +1416,7 @@
         <v>0.93</v>
       </c>
       <c r="D25" s="7">
-        <v>-0.26</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,7 +1430,7 @@
         <v>0.75</v>
       </c>
       <c r="D26" s="7">
-        <v>-0.44</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1444,7 +1444,7 @@
         <v>0.97</v>
       </c>
       <c r="D27" s="7">
-        <v>-0.17</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1458,7 +1458,7 @@
         <v>0.66</v>
       </c>
       <c r="D28" s="7">
-        <v>-0.47</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1472,7 +1472,7 @@
         <v>14.86</v>
       </c>
       <c r="D29" s="7">
-        <v>-4.22</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1486,7 +1486,7 @@
         <v>13.79</v>
       </c>
       <c r="D30" s="7">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1500,7 +1500,7 @@
         <v>0.45</v>
       </c>
       <c r="D31" s="7">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1514,7 +1514,7 @@
         <v>40.51</v>
       </c>
       <c r="D32" s="7">
-        <v>-29.31</v>
+        <v>29.31</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1528,7 +1528,7 @@
         <v>9.17</v>
       </c>
       <c r="D33" s="7">
-        <v>-29.64</v>
+        <v>29.64</v>
       </c>
     </row>
   </sheetData>

--- a/COVIDPPP/descriptives.xlsx
+++ b/COVIDPPP/descriptives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47EF9CE-A10A-40BB-9FA7-79F182B606D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE0F47-F6FE-4A90-9BA1-6B96BF083575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13584" yWindow="3792" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="166">
   <si>
     <t>Variable</t>
   </si>
@@ -55,12 +55,6 @@
     <t>median_family_income</t>
   </si>
   <si>
-    <t>black_percent</t>
-  </si>
-  <si>
-    <t>white_percent</t>
-  </si>
-  <si>
     <t>high_school_pct</t>
   </si>
   <si>
@@ -169,15 +163,6 @@
     <t>5103281</t>
   </si>
   <si>
-    <t>11.31</t>
-  </si>
-  <si>
-    <t>(16.53)</t>
-  </si>
-  <si>
-    <t>74.23</t>
-  </si>
-  <si>
     <t>(20.47)</t>
   </si>
   <si>
@@ -397,15 +382,6 @@
     <t>(37.20)</t>
   </si>
   <si>
-    <t xml:space="preserve">11.79 </t>
-  </si>
-  <si>
-    <t>(16.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.47 </t>
-  </si>
-  <si>
     <t>(20.15)</t>
   </si>
   <si>
@@ -548,6 +524,15 @@
   </si>
   <si>
     <t xml:space="preserve">0.66 </t>
+  </si>
+  <si>
+    <t>25.77</t>
+  </si>
+  <si>
+    <t>27.53</t>
+  </si>
+  <si>
+    <t>minority_percent</t>
   </si>
 </sst>
 </file>
@@ -978,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09AAA3-C6CD-4BC4-B5D7-6A5DC5513EF3}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,13 +998,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1027,447 +1012,433 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="D28" s="11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1478,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC78E0-1A02-473D-AFCB-B7BDC4D8A584}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,10 +1484,10 @@
         <v>2062124</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1527,441 +1498,427 @@
         <v>2062124</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B4" s="3">
         <v>2062124</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>2062124</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>2062124</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>2062124</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>2062124</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3">
         <v>2062124</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3">
         <v>2062124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>2062124</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>2062124</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>2062124</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>2062124</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>2062124</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>2062124</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
         <v>2062124</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
         <v>2062124</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>2062124</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>2062124</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3">
         <v>2062124</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>2062124</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
         <v>2062124</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
         <v>2062124</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>2062124</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3">
         <v>2062124</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3">
         <v>2062124</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3">
         <v>2062124</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3">
         <v>2062124</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3">
         <v>2062124</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3">
         <v>2062124</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>115</v>
+      <c r="C33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/COVIDPPP/descriptives.xlsx
+++ b/COVIDPPP/descriptives.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Regular/Desktop/GOV50/pppdata/COVIDPPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE0F47-F6FE-4A90-9BA1-6B96BF083575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B6808-804A-4D41-99E8-FB24FE4B3279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="26400" windowHeight="14900" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
   <si>
     <t>Variable</t>
   </si>
@@ -49,9 +40,6 @@
     <t>(SD)</t>
   </si>
   <si>
-    <t>days_to_approval</t>
-  </si>
-  <si>
     <t>median_family_income</t>
   </si>
   <si>
@@ -145,12 +133,6 @@
     <t>5211932</t>
   </si>
   <si>
-    <t xml:space="preserve">33.05 </t>
-  </si>
-  <si>
-    <t>(29.55)</t>
-  </si>
-  <si>
     <t>5071346</t>
   </si>
   <si>
@@ -370,12 +352,6 @@
     <t>(0.47)</t>
   </si>
   <si>
-    <t xml:space="preserve">35.59 </t>
-  </si>
-  <si>
-    <t>(27.42)</t>
-  </si>
-  <si>
     <t xml:space="preserve">90.38 </t>
   </si>
   <si>
@@ -533,6 +509,30 @@
   </si>
   <si>
     <t>minority_percent</t>
+  </si>
+  <si>
+    <t>business_days</t>
+  </si>
+  <si>
+    <t>22.90</t>
+  </si>
+  <si>
+    <t>(21.15)</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>24.73</t>
+  </si>
+  <si>
+    <t>(19.99)</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>(0.41)</t>
   </si>
 </sst>
 </file>
@@ -963,23 +963,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09AAA3-C6CD-4BC4-B5D7-6A5DC5513EF3}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="7"/>
+    <col min="7" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -993,452 +993,466 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="B22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="D31" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="11" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="11" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1449,20 +1463,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC78E0-1A02-473D-AFCB-B7BDC4D8A584}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="4" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="29.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="4" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1476,449 +1490,463 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B11" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="B22" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B27" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2062124</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C29" s="12" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2062124</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>110</v>
+      <c r="D34" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/COVIDPPP/descriptives.xlsx
+++ b/COVIDPPP/descriptives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Regular/Desktop/GOV50/pppdata/COVIDPPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B6808-804A-4D41-99E8-FB24FE4B3279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A2CB7-3C0F-4894-8FAD-926B27C2BE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="26400" windowHeight="14900" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -965,21 +965,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09AAA3-C6CD-4BC4-B5D7-6A5DC5513EF3}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="7" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>160</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>32</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
@@ -1465,18 +1465,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC78E0-1A02-473D-AFCB-B7BDC4D8A584}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="4" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="29.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="4" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>160</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>24</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>26</v>
       </c>
@@ -1938,9 +1938,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2062124</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>157</v>

--- a/COVIDPPP/descriptives.xlsx
+++ b/COVIDPPP/descriptives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A2CB7-3C0F-4894-8FAD-926B27C2BE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA75EA9-03CD-4786-9442-5DB305AE2F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
+    <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <t>Variable</t>
   </si>
@@ -352,150 +352,15 @@
     <t>(0.47)</t>
   </si>
   <si>
-    <t xml:space="preserve">90.38 </t>
-  </si>
-  <si>
-    <t>(37.20)</t>
-  </si>
-  <si>
-    <t>(20.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.11 </t>
-  </si>
-  <si>
-    <t>(9.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.40 </t>
-  </si>
-  <si>
-    <t>(11.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.89 </t>
-  </si>
-  <si>
-    <t>(16.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 </t>
-  </si>
-  <si>
     <t>(0.05)</t>
   </si>
   <si>
-    <t>40.51</t>
-  </si>
-  <si>
-    <t>(29.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90 </t>
-  </si>
-  <si>
     <t>(0.30)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.06 </t>
-  </si>
-  <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 </t>
-  </si>
-  <si>
     <t>(0.17)</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40e-3 </t>
-  </si>
-  <si>
-    <t>(0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00e-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16e-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.86 </t>
-  </si>
-  <si>
-    <t>(130.00)</t>
-  </si>
-  <si>
-    <t>9.17</t>
-  </si>
-  <si>
-    <t>(29.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48 </t>
-  </si>
-  <si>
-    <t>(3.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70 </t>
-  </si>
-  <si>
-    <t>(8.41)</t>
-  </si>
-  <si>
-    <t>850.08</t>
-  </si>
-  <si>
-    <t>(1184.32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.86 </t>
-  </si>
-  <si>
-    <t>(4.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02 </t>
-  </si>
-  <si>
-    <t>(15.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 </t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.80 </t>
-  </si>
-  <si>
-    <t>(68.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75 </t>
-  </si>
-  <si>
-    <t>(0.44)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.97 </t>
   </si>
   <si>
@@ -505,9 +370,6 @@
     <t>25.77</t>
   </si>
   <si>
-    <t>27.53</t>
-  </si>
-  <si>
     <t>minority_percent</t>
   </si>
   <si>
@@ -523,16 +385,145 @@
     <t>delay</t>
   </si>
   <si>
-    <t>24.73</t>
-  </si>
-  <si>
-    <t>(19.99)</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>(0.41)</t>
+    <t>22.25</t>
+  </si>
+  <si>
+    <t>(19.84)</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>(36.21)</t>
+  </si>
+  <si>
+    <t>26.49</t>
+  </si>
+  <si>
+    <t>90.24</t>
+  </si>
+  <si>
+    <t>(9.23)</t>
+  </si>
+  <si>
+    <t>48.38</t>
+  </si>
+  <si>
+    <t>(11.05)</t>
+  </si>
+  <si>
+    <t>48.39</t>
+  </si>
+  <si>
+    <t>(2.93)</t>
+  </si>
+  <si>
+    <t>-1.57</t>
+  </si>
+  <si>
+    <t>(16.22)</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>40.02</t>
+  </si>
+  <si>
+    <t>(29.50)</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>(0.32)</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>9.42e-3</t>
+  </si>
+  <si>
+    <t>4.26e-03</t>
+  </si>
+  <si>
+    <t>8.72e-04</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>(29.96)</t>
+  </si>
+  <si>
+    <t>(3.80)</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>(8.49)</t>
+  </si>
+  <si>
+    <t>841.20</t>
+  </si>
+  <si>
+    <t>(1158.80)</t>
+  </si>
+  <si>
+    <t>14.57</t>
+  </si>
+  <si>
+    <t>(4.18)</t>
+  </si>
+  <si>
+    <t>13.73</t>
+  </si>
+  <si>
+    <t>(4.20)</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>(15.05)</t>
+  </si>
+  <si>
+    <t>(24.77)</t>
+  </si>
+  <si>
+    <t>39.07</t>
+  </si>
+  <si>
+    <t>(65.64)</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>(3.17)</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>(0.43)</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.70</t>
   </si>
 </sst>
 </file>
@@ -995,16 +986,16 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1023,13 +1014,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>39</v>
@@ -1121,7 +1112,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>34</v>
@@ -1465,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC78E0-1A02-473D-AFCB-B7BDC4D8A584}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,16 +1483,16 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1509,27 +1500,27 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1537,13 +1528,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1551,13 +1542,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1565,13 +1556,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1579,13 +1570,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1593,13 +1584,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1607,27 +1598,27 @@
         <v>31</v>
       </c>
       <c r="B10" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1635,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1649,13 +1640,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1663,55 +1654,55 @@
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1719,13 +1710,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1733,27 +1724,27 @@
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1761,13 +1752,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1775,13 +1766,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1789,27 +1780,27 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1817,13 +1808,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1831,13 +1822,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1845,13 +1836,13 @@
         <v>15</v>
       </c>
       <c r="B27" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1859,13 +1850,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1873,13 +1864,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1887,13 +1878,13 @@
         <v>18</v>
       </c>
       <c r="B30" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1901,13 +1892,13 @@
         <v>24</v>
       </c>
       <c r="B31" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1915,13 +1906,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1929,13 +1920,13 @@
         <v>26</v>
       </c>
       <c r="B33" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1943,10 +1934,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="3">
-        <v>2062124</v>
+        <v>3621767</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>107</v>

--- a/COVIDPPP/descriptives.xlsx
+++ b/COVIDPPP/descriptives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA75EA9-03CD-4786-9442-5DB305AE2F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431DA27D-265A-4EF0-9231-5C2E44D1617C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
+    <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" xr2:uid="{D7BBF0FB-351D-441C-BD8D-72CB306EEAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
   <si>
     <t>Variable</t>
   </si>
@@ -85,21 +85,12 @@
     <t>mean_end_deaths_weighted</t>
   </si>
   <si>
-    <t>bank_ppp_issued</t>
-  </si>
-  <si>
     <t>rural</t>
   </si>
   <si>
     <t>businesses_per_pop</t>
   </si>
   <si>
-    <t>preference</t>
-  </si>
-  <si>
-    <t>requirement</t>
-  </si>
-  <si>
     <t>stay_at_home_apr</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>(0.03)</t>
   </si>
   <si>
-    <t>2492740</t>
-  </si>
-  <si>
     <t>(0.20)</t>
   </si>
   <si>
@@ -244,12 +232,6 @@
     <t>(0.46)</t>
   </si>
   <si>
-    <t>78.67</t>
-  </si>
-  <si>
-    <t>(108.12)</t>
-  </si>
-  <si>
     <t>4874154</t>
   </si>
   <si>
@@ -301,33 +283,9 @@
     <t>(4.35)</t>
   </si>
   <si>
-    <t>4825602</t>
-  </si>
-  <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>(22.94)</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>4896850</t>
-  </si>
-  <si>
-    <t>38.39</t>
-  </si>
-  <si>
-    <t>(109.22)</t>
-  </si>
-  <si>
     <t>1.62</t>
   </si>
   <si>
-    <t>(5.69)</t>
-  </si>
-  <si>
     <t>5167317</t>
   </si>
   <si>
@@ -358,15 +316,6 @@
     <t>(0.30)</t>
   </si>
   <si>
-    <t>(0.17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66 </t>
-  </si>
-  <si>
     <t>25.77</t>
   </si>
   <si>
@@ -490,27 +439,6 @@
     <t>(4.20)</t>
   </si>
   <si>
-    <t>6.45</t>
-  </si>
-  <si>
-    <t>(15.05)</t>
-  </si>
-  <si>
-    <t>(24.77)</t>
-  </si>
-  <si>
-    <t>39.07</t>
-  </si>
-  <si>
-    <t>(65.64)</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>(3.17)</t>
-  </si>
-  <si>
     <t>0.90</t>
   </si>
   <si>
@@ -524,6 +452,87 @@
   </si>
   <si>
     <t>0.70</t>
+  </si>
+  <si>
+    <t>male_percent</t>
+  </si>
+  <si>
+    <t>renter_percent</t>
+  </si>
+  <si>
+    <t>37.72</t>
+  </si>
+  <si>
+    <t>(17.96)</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>(31.20)</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>(0.52)</t>
+  </si>
+  <si>
+    <t>9.88</t>
+  </si>
+  <si>
+    <t>(14.98)</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>(0.87)</t>
+  </si>
+  <si>
+    <t>5103132</t>
+  </si>
+  <si>
+    <t>48.48</t>
+  </si>
+  <si>
+    <t>(3.27)</t>
+  </si>
+  <si>
+    <t>4771543</t>
+  </si>
+  <si>
+    <t>37.43</t>
+  </si>
+  <si>
+    <t>(18.49)</t>
+  </si>
+  <si>
+    <t>4508214</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>(30.85)</t>
+  </si>
+  <si>
+    <t>(0.56)</t>
+  </si>
+  <si>
+    <t>4576300</t>
+  </si>
+  <si>
+    <t>9.62</t>
+  </si>
+  <si>
+    <t>(29.71)</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>(1.81)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -604,11 +613,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,9 +649,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -639,6 +660,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09AAA3-C6CD-4BC4-B5D7-6A5DC5513EF3}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,465 +1015,451 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="D30" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="B31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1456,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC78E0-1A02-473D-AFCB-B7BDC4D8A584}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,7 +1484,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1482,466 +1498,455 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="D9" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="11" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C13" s="12" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D30" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C16" s="12" t="s">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="D32" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3621767</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3621767</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
